--- a/LR.xlsx
+++ b/LR.xlsx
@@ -2001,10 +2001,10 @@
         <v>0.884615384615385</v>
       </c>
       <c r="I41">
-        <v>0.685185185185185</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="J41">
-        <v>0.807692307692308</v>
+        <v>0.884615384615385</v>
       </c>
     </row>
     <row r="42" spans="1:10">
